--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3561.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3561.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.221732373036404</v>
+        <v>0.8535362482070923</v>
       </c>
       <c r="B1">
-        <v>1.468811734134227</v>
+        <v>2.635683059692383</v>
       </c>
       <c r="C1">
-        <v>1.974822892948996</v>
+        <v>1.128680467605591</v>
       </c>
       <c r="D1">
-        <v>4.793163514137883</v>
+        <v>1.188580393791199</v>
       </c>
       <c r="E1">
-        <v>3.614439448453637</v>
+        <v>1.346000075340271</v>
       </c>
     </row>
   </sheetData>
